--- a/0711 DBSQL/SQL_normalization_이세진.xlsx
+++ b/0711 DBSQL/SQL_normalization_이세진.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inese\Desktop\ybigta\0711 DB_RESTAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94DB2151-34FA-4265-94CB-4F8A7DD1A5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7C1942C-CD29-4C46-9942-DD5F5BC4A0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{016D6656-DC0B-4158-97AF-79B11676CB35}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{016D6656-DC0B-4158-97AF-79B11676CB35}"/>
   </bookViews>
   <sheets>
-    <sheet name="fin" sheetId="4" r:id="rId1"/>
+    <sheet name="BCNF" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -218,7 +218,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,6 +228,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,7 +289,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -300,6 +306,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -619,7 +631,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -628,10 +640,10 @@
       <c r="A1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" t="s">
         <v>43</v>
       </c>
-      <c r="K1" t="s">
+      <c r="J1" t="s">
         <v>44</v>
       </c>
       <c r="N1" t="s">
@@ -645,26 +657,28 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>14</v>
@@ -680,26 +694,28 @@
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="C3" s="1">
         <v>1981</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>46</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="1">
+      <c r="K3" s="1">
         <v>2004</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>19</v>
@@ -715,11 +731,13 @@
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="C4" s="1">
         <v>1967</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>1</v>
@@ -727,14 +745,14 @@
       <c r="H4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="1">
+      <c r="K4" s="1">
         <v>2009</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>8</v>
@@ -750,26 +768,28 @@
       <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="C5" s="1">
         <v>1970</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="1">
+      <c r="K5" s="1">
         <v>2016</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>9</v>
@@ -785,26 +805,28 @@
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="C6" s="1">
         <v>1972</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="1">
+      <c r="K6" s="1">
         <v>2012</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>8</v>
@@ -820,26 +842,28 @@
       <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="C7" s="1">
         <v>1981</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="1">
+      <c r="K7" s="1">
         <v>2013</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>7</v>
@@ -852,149 +876,153 @@
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="C8" s="1">
         <v>1970</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="1">
+      <c r="K8" s="1">
         <v>2013</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="L8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="1">
+      <c r="N8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" s="2">
         <v>1975</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="G9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="1">
+      <c r="K9" s="1">
         <v>2015</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="L9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O9" s="1">
-        <v>1971</v>
-      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F11" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="G11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F12" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="G12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F13" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="G13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F14" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F15" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="G15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F16" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F17" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="1" t="s">
         <v>41</v>
       </c>
     </row>
